--- a/backend/arena/calc5_arena_tests.xlsx
+++ b/backend/arena/calc5_arena_tests.xlsx
@@ -14,9 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>create</t>
+  </si>
+  <si>
+    <t>1 2; 3 4</t>
   </si>
   <si>
     <t>multiply</t>
@@ -30,19 +33,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -78,16 +75,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -403,37 +397,39 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="4" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="5" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="5" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="4" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="3" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="4" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="4" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="3" width="12.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2"/>
-      <c r="D1" s="3"/>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="3"/>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+      <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" s="2"/>
-      <c r="D2" s="3">
+      <c r="D2" s="1">
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="1"/>
       <c r="B3" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" s="2"/>
-      <c r="D3" s="3">
+      <c r="D3" s="1">
         <v>3</v>
       </c>
     </row>
